--- a/BG/设计表.xlsx
+++ b/BG/设计表.xlsx
@@ -86,7 +86,28 @@
     <t>profit</t>
   </si>
   <si>
-    <t>恢复2点血量。若本回合未受伤害，下回合获得3金币，且抽1张牌。</t>
+    <r>
+      <t>恢复2点血量。若本回合未受伤害，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下回合获得3金币，且抽1张牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>spring_judge</t>
@@ -454,6 +475,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>令对手弃1张手牌。若对手手牌少于3张，失去3点护盾且下一回合无法获得护盾。</t>
     </r>
     <r>
@@ -2217,7 +2244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2240,9 +2267,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2818,7 +2842,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2861,7 +2885,7 @@
       <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="40.5" spans="1:12">
       <c r="A2" s="4" t="s">
@@ -2889,10 +2913,10 @@
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
@@ -2928,7 +2952,7 @@
       <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L3" t="s">
@@ -2964,7 +2988,7 @@
       <c r="J4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L4" t="s">
@@ -3000,7 +3024,7 @@
       <c r="J5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M5" t="s">
@@ -3033,10 +3057,10 @@
       <c r="I6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M6" t="s">
@@ -3072,7 +3096,7 @@
       <c r="J7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="M7" t="s">
@@ -3106,7 +3130,7 @@
         <v>57</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M8" t="s">
@@ -3142,7 +3166,7 @@
       <c r="J9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M9" t="s">
@@ -3178,7 +3202,7 @@
       <c r="J10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="2" t="s">
         <v>70</v>
       </c>
       <c r="M10" t="s">
@@ -3214,7 +3238,7 @@
       <c r="J11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="2" t="s">
         <v>77</v>
       </c>
       <c r="M11" t="s">
@@ -3250,7 +3274,7 @@
       <c r="J12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="2" t="s">
         <v>84</v>
       </c>
       <c r="M12" t="s">
@@ -3286,7 +3310,7 @@
       <c r="J13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M13" t="s">
@@ -3322,7 +3346,7 @@
       <c r="J14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="2" t="s">
         <v>96</v>
       </c>
       <c r="M14" t="s">
@@ -3358,7 +3382,7 @@
       <c r="J15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3391,7 +3415,7 @@
       <c r="J16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3424,7 +3448,7 @@
       <c r="J17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3457,7 +3481,7 @@
       <c r="J18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3490,7 +3514,7 @@
       <c r="J19" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3523,7 +3547,7 @@
       <c r="J20" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3556,7 +3580,7 @@
       <c r="J21" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3589,7 +3613,7 @@
       <c r="J22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3622,7 +3646,7 @@
       <c r="J23" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3655,7 +3679,7 @@
       <c r="J24" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3685,8 +3709,8 @@
       <c r="I25" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3719,7 +3743,7 @@
       <c r="J26" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3752,7 +3776,7 @@
       <c r="J27" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="2" t="s">
         <v>167</v>
       </c>
     </row>
